--- a/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Nonlinear.xlsx
+++ b/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Nonlinear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Springs\Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8F7A6B-4D42-4621-A8A2-92C982F0068D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E2EC6C-4077-4E2B-8C6F-E87A178E536B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{4B72BAB0-EF5A-47BE-A61B-4D620C6D1400}"/>
+    <workbookView xWindow="2790" yWindow="2610" windowWidth="22320" windowHeight="10155" activeTab="1" xr2:uid="{4B72BAB0-EF5A-47BE-A61B-4D620C6D1400}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -91,10 +93,10 @@
     <t>Used to set fVector</t>
   </si>
   <si>
-    <t>Nonlinear_Sedan_HambaLG_f</t>
-  </si>
-  <si>
-    <t>Nonlinear_Sedan_HambaLG_r</t>
+    <t>Sedan_HambaLG_Nonlinear_A1</t>
+  </si>
+  <si>
+    <t>Sedan_HambaLG_Nonlinear_A2</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1143,7 @@
       <selection activeCell="R31" sqref="R31"/>
       <selection pane="topRight" activeCell="R31" sqref="R31"/>
       <selection pane="bottomLeft" activeCell="R31" sqref="R31"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Nonlinear.xlsx
+++ b/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Nonlinear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Springs\Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E2EC6C-4077-4E2B-8C6F-E87A178E536B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A50F0F-CA36-4DBC-9692-29EA18FDFE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="2610" windowWidth="22320" windowHeight="10155" activeTab="1" xr2:uid="{4B72BAB0-EF5A-47BE-A61B-4D620C6D1400}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4B72BAB0-EF5A-47BE-A61B-4D620C6D1400}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId1"/>
@@ -103,8 +103,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -176,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -219,6 +220,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -605,31 +608,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35662C51-FEE0-40E6-8B61-DB23F46627AE}">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="R31" sqref="R31"/>
       <selection pane="topRight" activeCell="R31" sqref="R31"/>
       <selection pane="bottomLeft" activeCell="R31" sqref="R31"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="14" width="6.6640625" customWidth="1"/>
+    <col min="9" max="14" width="6.7109375" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -649,7 +652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -680,7 +683,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -710,7 +713,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -741,7 +744,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
@@ -750,14 +753,14 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7">
-        <v>-0.05</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.62250000000000005</v>
+      <c r="F5" s="24">
+        <v>-2.6557142857142869E-3</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.62</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.65</v>
       </c>
       <c r="I5"/>
       <c r="J5" s="12" t="s">
@@ -781,7 +784,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -790,14 +793,14 @@
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7">
-        <v>-2.0999999999999999E-3</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.56449999999999989</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6.4299999999999968E-2</v>
+      <c r="F6" s="24">
+        <v>5.5166428571428582E-2</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0.19</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -819,7 +822,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -846,7 +849,7 @@
       <c r="Z7"/>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -887,7 +890,7 @@
       <c r="S8"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -931,13 +934,13 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -950,7 +953,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -970,7 +973,7 @@
       <c r="Z12"/>
       <c r="AA12"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
@@ -984,35 +987,35 @@
       <c r="Z13"/>
       <c r="AA13"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1034,7 +1037,7 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1056,7 +1059,7 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1078,7 +1081,7 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1134,31 +1137,31 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E476D5-D5F4-46B8-B8AE-896516844BE5}">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="R31" sqref="R31"/>
       <selection pane="topRight" activeCell="R31" sqref="R31"/>
       <selection pane="bottomLeft" activeCell="R31" sqref="R31"/>
-      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="14" width="6.6640625" customWidth="1"/>
+    <col min="9" max="14" width="6.7109375" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1178,7 +1181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1209,7 +1212,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1239,7 +1242,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1270,7 +1273,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
@@ -1279,14 +1282,14 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7">
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.62250000000000005</v>
+      <c r="F5" s="24">
+        <v>2.6557142857142869E-3</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.62</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.65</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>12</v>
@@ -1304,7 +1307,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -1313,14 +1316,14 @@
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7">
-        <v>-6.3E-3</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.53050000000000008</v>
-      </c>
-      <c r="H6" s="7">
-        <v>4.6399999999999997E-2</v>
+      <c r="F6" s="24">
+        <v>-5.5166428571428582E-2</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0.19</v>
       </c>
       <c r="P6"/>
       <c r="Q6"/>
@@ -1335,7 +1338,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1362,7 +1365,7 @@
       <c r="Z7"/>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -1442,13 +1445,13 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1465,7 +1468,7 @@
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="D12"/>
@@ -1488,7 +1491,7 @@
       <c r="Z12"/>
       <c r="AA12"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="D13"/>
@@ -1511,29 +1514,29 @@
       <c r="Z13"/>
       <c r="AA13"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -1555,7 +1558,7 @@
       <c r="S18"/>
       <c r="T18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1577,7 +1580,7 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1599,7 +1602,7 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1621,7 +1624,7 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22"/>
       <c r="C22"/>

--- a/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Nonlinear.xlsx
+++ b/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Nonlinear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Springs\Spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Springs\Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A50F0F-CA36-4DBC-9692-29EA18FDFE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D2206A-87A2-4BE7-93A2-CF7CE299423E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4B72BAB0-EF5A-47BE-A61B-4D620C6D1400}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{4B72BAB0-EF5A-47BE-A61B-4D620C6D1400}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -190,9 +190,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -203,51 +202,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -311,9 +284,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -351,7 +324,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -457,7 +430,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -599,7 +572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -610,19 +583,19 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="R31" sqref="R31"/>
       <selection pane="topRight" activeCell="R31" sqref="R31"/>
       <selection pane="bottomLeft" activeCell="R31" sqref="R31"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
@@ -632,7 +605,7 @@
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -652,480 +625,252 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="21">
         <v>-2.6557142857142869E-3</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="6">
         <v>0.62</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="6">
         <v>0.65</v>
       </c>
-      <c r="I5"/>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <v>5.5166428571428582E-2</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="6">
         <v>0.85</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="6">
         <v>0.19</v>
       </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-    </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-    </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="7">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="6">
         <v>-1</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>-0.5</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="13">
         <v>-0.3</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <v>-0.1</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="13">
         <v>0.1</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="13">
         <v>0.3</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="13">
         <v>0.5</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="13">
         <v>1</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="16">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="14">
         <f t="shared" ref="H9:O9" si="0">H8*$L$11</f>
         <v>-140000</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="14">
         <f t="shared" si="0"/>
         <v>-70000</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="14">
         <f t="shared" si="0"/>
         <v>-42000</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="14">
         <f t="shared" si="0"/>
         <v>-14000</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="14">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="14">
         <f t="shared" si="0"/>
         <v>42000</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="14">
         <f t="shared" si="0"/>
         <v>70000</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="14">
         <f t="shared" si="0"/>
         <v>140000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="J11" s="18" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="J11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="19">
+      <c r="K11" s="16"/>
+      <c r="L11" s="17">
         <v>140000</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-    </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-    </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-    </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-    </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-    </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="H18" s="19"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A13:B16 A5:A9">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+  <conditionalFormatting sqref="A4:A9">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="A13:B16">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1139,19 +884,19 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="R31" sqref="R31"/>
       <selection pane="topRight" activeCell="R31" sqref="R31"/>
       <selection pane="bottomLeft" activeCell="R31" sqref="R31"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
@@ -1161,7 +906,7 @@
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1181,494 +926,244 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="21">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="6">
         <v>0.62</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="6">
         <v>0.65</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="6">
         <v>0.85</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="6">
         <v>0.19</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-    </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-    </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="6">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="7">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="6">
         <v>-1</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>-0.5</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>-0.3</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>-0.1</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>0.1</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>0.3</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <v>0.5</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="23">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="20">
         <f>H8*$L$11</f>
         <v>-140000</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="20">
         <f t="shared" ref="I9:O9" si="0">I8*$L$11</f>
         <v>-70000</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="20">
         <f t="shared" si="0"/>
         <v>-42000</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="20">
         <f t="shared" si="0"/>
         <v>-14000</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="20">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="20">
         <f t="shared" si="0"/>
         <v>42000</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="20">
         <f t="shared" si="0"/>
         <v>70000</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="20">
         <f t="shared" si="0"/>
         <v>140000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="J11" s="18" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="J11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="23">
+      <c r="K11" s="16"/>
+      <c r="L11" s="20">
         <v>140000</v>
       </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-    </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-    </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-    </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-    </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-    </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-    </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-    </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="H17" s="19"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A12:B15 A5:B7">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:A17">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:B7 A12:B15">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Nonlinear.xlsx
+++ b/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Nonlinear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Springs\Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D2206A-87A2-4BE7-93A2-CF7CE299423E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5299B1AB-9E1C-42F2-A747-556E8B684F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{4B72BAB0-EF5A-47BE-A61B-4D620C6D1400}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B72BAB0-EF5A-47BE-A61B-4D620C6D1400}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>Units</t>
   </si>
@@ -72,9 +72,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>Also in Linkage</t>
-  </si>
-  <si>
     <t>sBottom</t>
   </si>
   <si>
@@ -97,6 +94,15 @@
   </si>
   <si>
     <t>Sedan_HambaLG_Nonlinear_A2</t>
+  </si>
+  <si>
+    <t>Must be consistent with values in Linkage</t>
+  </si>
+  <si>
+    <t>fPreload</t>
+  </si>
+  <si>
+    <t>Set either xPreload or fPreload to a nonzero value</t>
   </si>
 </sst>
 </file>
@@ -177,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -215,7 +221,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,14 +590,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="R31" sqref="R31"/>
-      <selection pane="topRight" activeCell="R31" sqref="R31"/>
-      <selection pane="bottomLeft" activeCell="R31" sqref="R31"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection activeCell="E5" sqref="E5:E6"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5:E6"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5:E6"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +654,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -673,48 +680,59 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" s="21">
         <v>-2.6557142857142869E-3</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="22">
         <v>0.62</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="22">
         <v>0.65</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
       <c r="F6" s="21">
         <v>5.5166428571428582E-2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="22">
         <v>0.85</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="22">
         <v>0.19</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="H7" s="6">
         <v>7.0000000000000007E-2</v>
@@ -722,128 +740,140 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="G8" s="12"/>
       <c r="H8" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I8" s="13">
-        <v>-0.5</v>
-      </c>
-      <c r="J8" s="13">
-        <v>-0.3</v>
-      </c>
-      <c r="K8" s="13">
-        <v>-0.1</v>
-      </c>
-      <c r="L8" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="M8" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="N8" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="O8" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="14">
-        <f t="shared" ref="H9:O9" si="0">H8*$L$11</f>
+      <c r="H9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="J9" s="13">
+        <v>-0.3</v>
+      </c>
+      <c r="K9" s="13">
+        <v>-0.1</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="N9" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="14">
+        <f t="shared" ref="H10:O10" si="0">H9*$L$12</f>
         <v>-140000</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I10" s="14">
         <f t="shared" si="0"/>
         <v>-70000</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J10" s="14">
         <f t="shared" si="0"/>
         <v>-42000</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K10" s="14">
         <f t="shared" si="0"/>
         <v>-14000</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L10" s="14">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M10" s="14">
         <f t="shared" si="0"/>
         <v>42000</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N10" s="14">
         <f t="shared" si="0"/>
         <v>70000</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O10" s="14">
         <f t="shared" si="0"/>
         <v>140000</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="J11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17">
-        <v>140000</v>
-      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
+      <c r="J12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17">
+        <v>140000</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F16" s="6"/>
@@ -851,26 +881,31 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-      <c r="H17" s="19"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="H18" s="19"/>
     </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="H19" s="19"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:A9">
+  <conditionalFormatting sqref="A4:A10">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="A14:B17">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -884,14 +919,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="R31" sqref="R31"/>
-      <selection pane="topRight" activeCell="R31" sqref="R31"/>
-      <selection pane="bottomLeft" activeCell="R31" sqref="R31"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection activeCell="E7" sqref="E7:E8"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7:E8"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7:E8"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,7 +983,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -974,48 +1009,59 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" s="21">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="22">
         <v>0.62</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="22">
         <v>0.65</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
       <c r="F6" s="21">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="22">
         <v>0.85</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="22">
         <v>0.19</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="H7" s="6">
         <v>0.06</v>
@@ -1023,115 +1069,127 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="G8" s="12"/>
       <c r="H8" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I8" s="6">
-        <v>-0.5</v>
-      </c>
-      <c r="J8" s="6">
-        <v>-0.3</v>
-      </c>
-      <c r="K8" s="6">
-        <v>-0.1</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="O8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="20">
-        <f>H8*$L$11</f>
+      <c r="H9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="J9" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="K9" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="20">
+        <f>H9*$L$12</f>
         <v>-140000</v>
       </c>
-      <c r="I9" s="20">
-        <f t="shared" ref="I9:O9" si="0">I8*$L$11</f>
+      <c r="I10" s="20">
+        <f t="shared" ref="I10:O10" si="0">I9*$L$12</f>
         <v>-70000</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J10" s="20">
         <f t="shared" si="0"/>
         <v>-42000</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K10" s="20">
         <f t="shared" si="0"/>
         <v>-14000</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L10" s="20">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M10" s="20">
         <f t="shared" si="0"/>
         <v>42000</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N10" s="20">
         <f t="shared" si="0"/>
         <v>70000</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O10" s="20">
         <f t="shared" si="0"/>
         <v>140000</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="J11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="20">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="J12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="20">
         <v>140000</v>
       </c>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="B14" s="15"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F15" s="6"/>
@@ -1139,31 +1197,36 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="H16" s="19"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="H17" s="19"/>
     </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="H18" s="19"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A9">
+  <conditionalFormatting sqref="A8:A10">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:A17">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B7 A12:B15">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+  <conditionalFormatting sqref="A5:B7 A13:B16">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Nonlinear.xlsx
+++ b/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Nonlinear.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Springs\Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5299B1AB-9E1C-42F2-A747-556E8B684F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3FCFDD-12EF-4428-AAC3-668FF87CE2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B72BAB0-EF5A-47BE-A61B-4D620C6D1400}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11235" activeTab="2" xr2:uid="{4B72BAB0-EF5A-47BE-A61B-4D620C6D1400}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId1"/>
     <sheet name="Sedan_HambaLG_r" sheetId="2" r:id="rId2"/>
+    <sheet name="SUV_Landy_TA4Watts_r" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
   <si>
     <t>Units</t>
   </si>
@@ -103,6 +104,9 @@
   </si>
   <si>
     <t>Set either xPreload or fPreload to a nonzero value</t>
+  </si>
+  <si>
+    <t>SUV_Landy_TA4Watts_Nonlinear_A2</t>
   </si>
 </sst>
 </file>
@@ -183,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -223,11 +227,45 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -592,12 +630,12 @@
   </sheetPr>
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E5" sqref="E5:E6"/>
       <selection pane="topRight" activeCell="E5" sqref="E5:E6"/>
       <selection pane="bottomLeft" activeCell="E5" sqref="E5:E6"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,17 +933,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A10">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B17">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -926,7 +964,7 @@
       <selection activeCell="E7" sqref="E7:E8"/>
       <selection pane="topRight" activeCell="E7" sqref="E7:E8"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7:E8"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7:E8"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,26 +1249,349 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A10">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B7 A13:B16">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83704173-3AD0-4C6E-9454-4A92F99F4A4E}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:S17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="25">
+        <f>2.8-2.79</f>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="25">
+        <f>2.8-2.79</f>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0.54</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="J9" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="K9" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="20">
+        <f>H9*$L$12</f>
+        <v>-52000</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" ref="I10:O10" si="0">I9*$L$12</f>
+        <v>-26000</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" si="0"/>
+        <v>-15600</v>
+      </c>
+      <c r="K10" s="20">
+        <f t="shared" si="0"/>
+        <v>-5200</v>
+      </c>
+      <c r="L10" s="20">
+        <f t="shared" si="0"/>
+        <v>5200</v>
+      </c>
+      <c r="M10" s="20">
+        <f t="shared" si="0"/>
+        <v>15600</v>
+      </c>
+      <c r="N10" s="20">
+        <f t="shared" si="0"/>
+        <v>26000</v>
+      </c>
+      <c r="O10" s="20">
+        <f t="shared" si="0"/>
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="J12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="26">
+        <v>52000</v>
+      </c>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="H17" s="19"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:A8">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:A17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B15">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A10">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>